--- a/resources/espesores.xlsx
+++ b/resources/espesores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>MATERIALES HABILITADOS</t>
   </si>
@@ -28,40 +28,10 @@
     <t>N, G</t>
   </si>
   <si>
-    <t>0,7 mm</t>
-  </si>
-  <si>
-    <t>0,9 mm</t>
-  </si>
-  <si>
-    <t>1,2 mm</t>
-  </si>
-  <si>
-    <t>1,6 mm</t>
-  </si>
-  <si>
-    <t>2,1 mm</t>
-  </si>
-  <si>
-    <t>3,2 mm</t>
-  </si>
-  <si>
-    <t>4,7 mm</t>
-  </si>
-  <si>
-    <t>6,3 mm</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>1 mm</t>
-  </si>
-  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>0,4 mm</t>
   </si>
 </sst>
 </file>
@@ -69,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +50,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,13 +92,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -455,114 +431,114 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>0.7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="C2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>0.9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="C3" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>1.2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="C4" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>1.6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="C5" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>2.1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="C6" s="3">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>3.2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="C7" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3">
         <v>4.7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="C8" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3">
         <v>6.3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="C9" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>0.4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
+      <c r="C11" s="3">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
